--- a/JPEM_DAPP/Tableau Table 1.xlsx
+++ b/JPEM_DAPP/Tableau Table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JPEM_Git_Main\JPEM\JPEM_DAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96ECBFAB-F884-4D31-A778-E6A4F27D68C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8191F4-3AB4-4CF1-953F-D8C01C779B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="3675" windowWidth="31005" windowHeight="11835" xr2:uid="{7DB37556-1C7D-4B53-B056-A9FCB5C75D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{7DB37556-1C7D-4B53-B056-A9FCB5C75D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>total_cases</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>DeathPercentage</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -418,38 +424,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B2630F-72AB-4CE0-BE75-AEF927DCFEDE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>775403339</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>7049412</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.90912840394668404</v>
       </c>
     </row>
